--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_9.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_3</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9748452944211866</v>
+        <v>0.998963407887335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7573620439670313</v>
+        <v>0.8189348213812863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9405144108306612</v>
+        <v>0.9971072575379639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7690785514595003</v>
+        <v>0.994541792944493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8858651653590531</v>
+        <v>0.9956886499381371</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1682096320322942</v>
+        <v>0.006931696230458697</v>
       </c>
       <c r="H2" t="n">
-        <v>1.622521129237518</v>
+        <v>1.210783683151825</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1408290909250793</v>
+        <v>0.008580760144840369</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3063814361452779</v>
+        <v>0.03373344609281167</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2236052713545303</v>
+        <v>0.0211571105008283</v>
       </c>
       <c r="L2" t="n">
-        <v>1.797573281212576</v>
+        <v>0.08183509801522741</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4101336758086249</v>
+        <v>0.08325680891349786</v>
       </c>
       <c r="N2" t="n">
-        <v>1.016316565780852</v>
+        <v>1.00067238407308</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4275939154815483</v>
+        <v>0.08680122363429923</v>
       </c>
       <c r="P2" t="n">
-        <v>125.5650885354607</v>
+        <v>131.9433014588615</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.916513852421</v>
+        <v>206.2947267758217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9766834217968748</v>
+        <v>0.9989562263881825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7571951606478342</v>
+        <v>0.8189201231406152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.932508793039841</v>
+        <v>0.9969782552672503</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7552722422897343</v>
+        <v>0.9945241192709343</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8763530903859962</v>
+        <v>0.9956385417713123</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1559180658072685</v>
+        <v>0.006979718948359029</v>
       </c>
       <c r="H3" t="n">
-        <v>1.623637078761416</v>
+        <v>1.210881970354871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1597819817263352</v>
+        <v>0.008963420391185022</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3246993397355837</v>
+        <v>0.03384267498577789</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2422406871956811</v>
+        <v>0.02140300656755797</v>
       </c>
       <c r="L3" t="n">
-        <v>1.663477397566968</v>
+        <v>0.08269981660551347</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3948646170616816</v>
+        <v>0.0835447122704904</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015124266942568</v>
+        <v>1.000677042342801</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4116748212924388</v>
+        <v>0.08710138363324105</v>
       </c>
       <c r="P3" t="n">
-        <v>125.7168492577854</v>
+        <v>131.9294932565932</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.0682745747456</v>
+        <v>206.2809185735534</v>
       </c>
     </row>
     <row r="4">
@@ -632,327 +632,327 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9723612816564089</v>
+        <v>0.9989490387514514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7571760922592055</v>
+        <v>0.818905892050667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9485403254946625</v>
+        <v>0.9968575750889566</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7826607341503646</v>
+        <v>0.9945083211750986</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8953136105340991</v>
+        <v>0.9955921116201806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1848202368281899</v>
+        <v>0.007027782708276381</v>
       </c>
       <c r="H4" t="n">
-        <v>1.623764589163979</v>
+        <v>1.210977133718883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1218281483143243</v>
+        <v>0.009321394762482992</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2883608985766999</v>
+        <v>0.03394031221515092</v>
       </c>
       <c r="K4" t="n">
-        <v>0.205094514722772</v>
+        <v>0.02163085348881695</v>
       </c>
       <c r="L4" t="n">
-        <v>1.94644936822084</v>
+        <v>0.08347801549231085</v>
       </c>
       <c r="M4" t="n">
-        <v>0.429907242121123</v>
+        <v>0.08383187167346547</v>
       </c>
       <c r="N4" t="n">
-        <v>1.017927817303951</v>
+        <v>1.000681704593653</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4482092834488947</v>
+        <v>0.08740076800650268</v>
       </c>
       <c r="P4" t="n">
-        <v>125.3767432382478</v>
+        <v>131.9157680542761</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.7281685552081</v>
+        <v>206.2671933712363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.978013873942327</v>
+        <v>0.9989419535883556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7567611686711841</v>
+        <v>0.8188922590096268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9246774697887168</v>
+        <v>0.9967449769079491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7414555631418659</v>
+        <v>0.9944940886341467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8669428406882915</v>
+        <v>0.9955491420570737</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1470213261844614</v>
+        <v>0.007075161226522306</v>
       </c>
       <c r="H5" t="n">
-        <v>1.626539185107625</v>
+        <v>1.211068297927093</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1783222391163509</v>
+        <v>0.009655395454439242</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3430310019819341</v>
+        <v>0.03402827382014021</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2606766138239417</v>
+        <v>0.02184171824852786</v>
       </c>
       <c r="L5" t="n">
-        <v>1.542608587051152</v>
+        <v>0.08417966687363242</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3834336007504577</v>
+        <v>0.08411397759303924</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014261270956328</v>
+        <v>1.000686300375121</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3997571629513801</v>
+        <v>0.08769488375911245</v>
       </c>
       <c r="P5" t="n">
-        <v>125.8343552532823</v>
+        <v>131.9023300950229</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.1857805702425</v>
+        <v>206.2537554119831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_1</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9690565485304568</v>
+        <v>0.9989350949939768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7565266425236206</v>
+        <v>0.8188793162962978</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9563634847912577</v>
+        <v>0.9966407048210296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7957377316445839</v>
+        <v>0.9944812802934273</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9044684737468724</v>
+        <v>0.9955095383125652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2069190024583282</v>
+        <v>0.00712102467871403</v>
       </c>
       <c r="H6" t="n">
-        <v>1.628107462536276</v>
+        <v>1.21115484591072</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1033072186692421</v>
+        <v>0.009964698401175528</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2710106294783989</v>
+        <v>0.03410743341720204</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1871589240738205</v>
+        <v>0.02203606590918878</v>
       </c>
       <c r="L6" t="n">
-        <v>2.111864928657741</v>
+        <v>0.08480683659711634</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4548835042715093</v>
+        <v>0.08438616402416944</v>
       </c>
       <c r="N6" t="n">
-        <v>1.020071427980244</v>
+        <v>1.000690749193096</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4742488367870131</v>
+        <v>0.08797865773011948</v>
       </c>
       <c r="P6" t="n">
-        <v>125.150855709527</v>
+        <v>131.8894072967267</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.5022810264872</v>
+        <v>206.240832613687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_6</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9789467165907588</v>
+        <v>0.9989285260947038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7561275866476465</v>
+        <v>0.8188671153853857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9171249824449296</v>
+        <v>0.9965443441338548</v>
       </c>
       <c r="E7" t="n">
-        <v>0.727798486700177</v>
+        <v>0.9944697481333915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8577550847571042</v>
+        <v>0.9954731529956281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1407834030990517</v>
+        <v>0.007164950938398902</v>
       </c>
       <c r="H7" t="n">
-        <v>1.630775951016398</v>
+        <v>1.211236433458169</v>
       </c>
       <c r="I7" t="n">
-        <v>0.196202366752322</v>
+        <v>0.0102505337131296</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3611509069114956</v>
+        <v>0.03417870581396966</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2786766456686919</v>
+        <v>0.02221461976354963</v>
       </c>
       <c r="L7" t="n">
-        <v>1.433620462479841</v>
+        <v>0.08537036638939158</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3752111446892958</v>
+        <v>0.08464603321124328</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013656183833021</v>
+        <v>1.000695010100733</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3911846599128641</v>
+        <v>0.08824959008649043</v>
       </c>
       <c r="P7" t="n">
-        <v>125.9210654358461</v>
+        <v>131.8771081302453</v>
       </c>
       <c r="Q7" t="n">
-        <v>200.2724907528063</v>
+        <v>206.2285334472056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_7</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9795696118300975</v>
+        <v>0.9989222966929915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7553483285245824</v>
+        <v>0.818855745412592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9099182938108348</v>
+        <v>0.9964557045124309</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7144350940211157</v>
+        <v>0.9944593605333744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8488757028360514</v>
+        <v>0.9954398219811748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1366180997654254</v>
+        <v>0.00720660697633339</v>
       </c>
       <c r="H8" t="n">
-        <v>1.635986853673481</v>
+        <v>1.211312464518595</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2132638336234075</v>
+        <v>0.01051346597922299</v>
       </c>
       <c r="J8" t="n">
-        <v>0.378881158764069</v>
+        <v>0.03424290446778579</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2960725319479646</v>
+        <v>0.02237818522350439</v>
       </c>
       <c r="L8" t="n">
-        <v>1.335334416104915</v>
+        <v>0.08587622779954099</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3696188574267084</v>
+        <v>0.08489173679654216</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013252143677775</v>
+        <v>1.000699050793735</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3853542974038778</v>
+        <v>0.08850575378209199</v>
       </c>
       <c r="P8" t="n">
-        <v>125.9811316773599</v>
+        <v>131.8655140762569</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.3325569943202</v>
+        <v>206.2169393932171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_0</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9647093100884633</v>
+        <v>0.9989164197172967</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7552680805285402</v>
+        <v>0.8188451154023995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.963663431162165</v>
+        <v>0.9963741270361941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8079365037621646</v>
+        <v>0.9944500136028865</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9130098337198851</v>
+        <v>0.9954092823896656</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2359890059371312</v>
+        <v>0.007245906339865561</v>
       </c>
       <c r="H9" t="n">
-        <v>1.636523472392523</v>
+        <v>1.211383547445699</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08602496887441943</v>
+        <v>0.01075544975966541</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2548255702549468</v>
+        <v>0.03430067145473593</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1704252676006632</v>
+        <v>0.02252805231917901</v>
       </c>
       <c r="L9" t="n">
-        <v>2.296229024805232</v>
+        <v>0.08633244265797907</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4857869964677227</v>
+        <v>0.08512288963531231</v>
       </c>
       <c r="N9" t="n">
-        <v>1.022891258320997</v>
+        <v>1.000702862886078</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5064679546250672</v>
+        <v>0.08874674727576094</v>
       </c>
       <c r="P9" t="n">
-        <v>124.8879401201076</v>
+        <v>131.854637224727</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.2393654370678</v>
+        <v>206.2060625416872</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9799522756398349</v>
+        <v>0.9989109305193377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7544667356623771</v>
+        <v>0.8188352803193462</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9030976412349572</v>
+        <v>0.9962995311583511</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7014659806156076</v>
+        <v>0.9944415990683614</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8403631168365717</v>
+        <v>0.9953814352317004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.134059225107707</v>
+        <v>0.007282612631893267</v>
       </c>
       <c r="H10" t="n">
-        <v>1.64188206920241</v>
+        <v>1.211449314691363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2294113798642664</v>
+        <v>0.01097672398091581</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3960882896556528</v>
+        <v>0.03435267593970916</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3127498163925469</v>
+        <v>0.02266470682177116</v>
       </c>
       <c r="L10" t="n">
-        <v>1.246707056912546</v>
+        <v>0.08674354250400997</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3661409907504307</v>
+        <v>0.08533822491646557</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013003929314702</v>
+        <v>1.000706423446916</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3817283707430144</v>
+        <v>0.08897124982563839</v>
       </c>
       <c r="P10" t="n">
-        <v>126.0189471965184</v>
+        <v>131.8445312062951</v>
       </c>
       <c r="Q10" t="n">
-        <v>200.3703725134786</v>
+        <v>206.1959565232553</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9801503972872122</v>
+        <v>0.9989058259454532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7535176347591339</v>
+        <v>0.8188262002288067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8966825686354654</v>
+        <v>0.9962312828721794</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6889724231594019</v>
+        <v>0.9944340861185366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8322565698247983</v>
+        <v>0.9953560801382929</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1327343847394283</v>
+        <v>0.007316746940963043</v>
       </c>
       <c r="H11" t="n">
-        <v>1.648228711312605</v>
+        <v>1.21151003329861</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2445987362478942</v>
+        <v>0.01117916930109923</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4126644635025986</v>
+        <v>0.03439910834605326</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3286316166336236</v>
+        <v>0.02278913200304484</v>
       </c>
       <c r="L11" t="n">
-        <v>1.166800247415314</v>
+        <v>0.08711307293477479</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3643273044110588</v>
+        <v>0.08553798536885845</v>
       </c>
       <c r="N11" t="n">
-        <v>1.012875417975862</v>
+        <v>1.000709734521868</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3798374720213272</v>
+        <v>0.08917951449405077</v>
       </c>
       <c r="P11" t="n">
-        <v>126.0388105097209</v>
+        <v>131.8351789135185</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.3902358266811</v>
+        <v>206.1866042304787</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9802082402527066</v>
+        <v>0.9989010913577696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7525291084660231</v>
+        <v>0.8188178104882424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8906790490244427</v>
+        <v>0.9961689245967454</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6770140138952234</v>
+        <v>0.9944273449371251</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8245798991632389</v>
+        <v>0.9953330016553775</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1323475885628252</v>
+        <v>0.007348407150603685</v>
       </c>
       <c r="H12" t="n">
-        <v>1.654838991186382</v>
+        <v>1.211566135532395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2588117619735769</v>
+        <v>0.01136414304541554</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4285306146441606</v>
+        <v>0.03444077097948488</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3436712321180405</v>
+        <v>0.02290238516185266</v>
       </c>
       <c r="L12" t="n">
-        <v>1.09476895279027</v>
+        <v>0.08744641524323296</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3637960810163094</v>
+        <v>0.08572285080772621</v>
       </c>
       <c r="N12" t="n">
-        <v>1.012837898214461</v>
+        <v>1.000712805605771</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3792836333468793</v>
+        <v>0.08937225003737534</v>
       </c>
       <c r="P12" t="n">
-        <v>126.0446471412549</v>
+        <v>131.8265434068938</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.3960724582151</v>
+        <v>206.177968723854</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9801609620857351</v>
+        <v>0.9988967103533819</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7515236933876125</v>
+        <v>0.8188101424103891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8850825171015737</v>
+        <v>0.996112133609626</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6656316663592943</v>
+        <v>0.9944212040847648</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8173442280900134</v>
+        <v>0.9953119692932478</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1326637378830589</v>
+        <v>0.007377702947116886</v>
       </c>
       <c r="H13" t="n">
-        <v>1.661562206445224</v>
+        <v>1.211617412004308</v>
       </c>
       <c r="I13" t="n">
-        <v>0.272061265156393</v>
+        <v>0.01153260250741585</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4436324599114746</v>
+        <v>0.03447872338948966</v>
       </c>
       <c r="K13" t="n">
-        <v>0.357846870947768</v>
+        <v>0.02300559738152539</v>
       </c>
       <c r="L13" t="n">
-        <v>1.029853660619572</v>
+        <v>0.08774581043681426</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3642303363025367</v>
+        <v>0.08589355591147037</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012868565133577</v>
+        <v>1.000715647338347</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3797363757796736</v>
+        <v>0.08955022241079416</v>
       </c>
       <c r="P13" t="n">
-        <v>126.0398752777357</v>
+        <v>131.8185858851949</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.3913005946959</v>
+        <v>206.1700112021552</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9800364665020092</v>
+        <v>0.9988926853667346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7505193677218271</v>
+        <v>0.8188030761134741</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8798834601814655</v>
+        <v>0.9960604896168564</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6548543246421348</v>
+        <v>0.9944157224312562</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8105535695596164</v>
+        <v>0.9952929073564502</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1334962404246845</v>
+        <v>0.007404618051361151</v>
       </c>
       <c r="H14" t="n">
-        <v>1.668278136796825</v>
+        <v>1.211664664364315</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2843697665926362</v>
+        <v>0.01168579440772953</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4579315969297175</v>
+        <v>0.03451260174207833</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3711506712129731</v>
+        <v>0.02309914012275543</v>
       </c>
       <c r="L14" t="n">
-        <v>0.971848431129461</v>
+        <v>0.08801898852161712</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3653713732966562</v>
+        <v>0.08605009036230671</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012949319025724</v>
+        <v>1.000718258140497</v>
       </c>
       <c r="O14" t="n">
-        <v>0.380925989080905</v>
+        <v>0.0897134208572736</v>
       </c>
       <c r="P14" t="n">
-        <v>126.0273639263025</v>
+        <v>131.8113028248447</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.3787892432627</v>
+        <v>206.1627281418049</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.979856742948591</v>
+        <v>0.9988889850375614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7495302825755898</v>
+        <v>0.8187967132986849</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8750662896800342</v>
+        <v>0.9960136435140986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6446946634078048</v>
+        <v>0.9944107109163909</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8042028005033736</v>
+        <v>0.9952755941858709</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1346980526539418</v>
+        <v>0.007429362169580211</v>
       </c>
       <c r="H15" t="n">
-        <v>1.674892153724032</v>
+        <v>1.21170721253611</v>
       </c>
       <c r="I15" t="n">
-        <v>0.295774171458098</v>
+        <v>0.01182475429674886</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4714112092368333</v>
+        <v>0.03454357448914248</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3835926696843293</v>
+        <v>0.02318410113445946</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9209593520712057</v>
+        <v>0.08825689734023408</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3670123331087687</v>
+        <v>0.08619374785667584</v>
       </c>
       <c r="N15" t="n">
-        <v>1.013065896465779</v>
+        <v>1.000720658354014</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3826368079494742</v>
+        <v>0.08986319414859004</v>
       </c>
       <c r="P15" t="n">
-        <v>126.0094393051648</v>
+        <v>131.8046305384319</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.3608646221251</v>
+        <v>206.1560558553922</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9796392113396518</v>
+        <v>0.9988855955816777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7485673179656676</v>
+        <v>0.8187908478943182</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8706144594951969</v>
+        <v>0.9959709613576845</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6351603603592373</v>
+        <v>0.9944062700942821</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7982845013392246</v>
+        <v>0.9952598712870735</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1361526875245595</v>
+        <v>0.007452027476682123</v>
       </c>
       <c r="H16" t="n">
-        <v>1.681331502504627</v>
+        <v>1.211746434522117</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3063136518034759</v>
+        <v>0.01195136264556004</v>
       </c>
       <c r="J16" t="n">
-        <v>0.484061110227525</v>
+        <v>0.03457102017445506</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3951874023066697</v>
+        <v>0.0232612581972068</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8752039801516406</v>
+        <v>0.08847046693471328</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3689887363112314</v>
+        <v>0.08632512656626762</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013206998049956</v>
+        <v>1.000722856919993</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3846973507279844</v>
+        <v>0.09000016592184056</v>
       </c>
       <c r="P16" t="n">
-        <v>125.9879566412373</v>
+        <v>131.7985382781884</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.3393819581975</v>
+        <v>206.1499635951486</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.979397278113701</v>
+        <v>0.99888250196226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7476386659632217</v>
+        <v>0.8187855165898749</v>
       </c>
       <c r="D17" t="n">
-        <v>0.866506991425801</v>
+        <v>0.9959323619578748</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6262448703291283</v>
+        <v>0.9944022529110241</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7927838394385647</v>
+        <v>0.9952456892130142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1377704961204926</v>
+        <v>0.007472714523972499</v>
       </c>
       <c r="H17" t="n">
-        <v>1.687541402721032</v>
+        <v>1.211782084979478</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3160378724474057</v>
+        <v>0.01206586028779668</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4958899838840343</v>
+        <v>0.03459584763766752</v>
       </c>
       <c r="K17" t="n">
-        <v>0.40596392816572</v>
+        <v>0.0233308539627321</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8340524315425714</v>
+        <v>0.08867175194196221</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3711744820438127</v>
+        <v>0.08644486406937371</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013363927710032</v>
+        <v>1.000724863592048</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3869761481815192</v>
+        <v>0.09012500089834469</v>
       </c>
       <c r="P17" t="n">
-        <v>125.9643320997086</v>
+        <v>131.7929939115151</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.3157574166688</v>
+        <v>206.1444192284754</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9791415665933386</v>
+        <v>0.9988796639184671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7467503488399792</v>
+        <v>0.8187806332660919</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8627252350261118</v>
+        <v>0.9958972064735363</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6179407343397676</v>
+        <v>0.9943986195850091</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7876869771835374</v>
+        <v>0.9952327761137205</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1394804402345989</v>
+        <v>0.007491692535884085</v>
       </c>
       <c r="H18" t="n">
-        <v>1.693481583414479</v>
+        <v>1.211814739788101</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3249909873665876</v>
+        <v>0.0121701422219278</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5069077266119031</v>
+        <v>0.03461830274170051</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4159493569892454</v>
+        <v>0.02339422248181415</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7970396367416239</v>
+        <v>0.08884620489331808</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3734708023856737</v>
+        <v>0.08655456392290406</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013529794642159</v>
+        <v>1.000726704485319</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3893702276343715</v>
+        <v>0.09023937090174981</v>
       </c>
       <c r="P18" t="n">
-        <v>125.9396618018472</v>
+        <v>131.7879210684656</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.2910871188074</v>
+        <v>206.1393463854258</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9788800566542299</v>
+        <v>0.9988771029107956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7459064436680839</v>
+        <v>0.8187762176640686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8592492159902604</v>
+        <v>0.995865518417256</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6102274947353301</v>
+        <v>0.9943954446305278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.782974916756551</v>
+        <v>0.9952211864929263</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1412291584015613</v>
+        <v>0.007508818005975526</v>
       </c>
       <c r="H19" t="n">
-        <v>1.699124781184769</v>
+        <v>1.211844266939162</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3332202847089016</v>
+        <v>0.01226413870241878</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5171414811733627</v>
+        <v>0.03463792496466775</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4251809080203558</v>
+        <v>0.02345109628799723</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7637452380455033</v>
+        <v>0.08900502409473562</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3758046811863329</v>
+        <v>0.08665343620408555</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01369942271077</v>
+        <v>1.000728365679484</v>
       </c>
       <c r="O19" t="n">
-        <v>0.39180346448737</v>
+        <v>0.09034245238063504</v>
       </c>
       <c r="P19" t="n">
-        <v>125.9147429419634</v>
+        <v>131.7833544298878</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.2661682589237</v>
+        <v>206.134779746848</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9786188635626302</v>
+        <v>0.9988747594484099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7451095851676404</v>
+        <v>0.8187722104914975</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8560595971196553</v>
+        <v>0.9958368087282493</v>
       </c>
       <c r="E20" t="n">
-        <v>0.603085837254219</v>
+        <v>0.9943925141535587</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7786294580893761</v>
+        <v>0.9952106772528442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1429757578077725</v>
+        <v>0.007524488749739187</v>
       </c>
       <c r="H20" t="n">
-        <v>1.70445337764643</v>
+        <v>1.211871062920597</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3407715443033232</v>
+        <v>0.01234930043334774</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5266168733006416</v>
+        <v>0.03465603623927824</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4336942376054056</v>
+        <v>0.02350266833631299</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7337910732875959</v>
+        <v>0.08914448740726304</v>
       </c>
       <c r="M20" t="n">
-        <v>0.378121353281949</v>
+        <v>0.08674381101692032</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013868845256672</v>
+        <v>1.000729885763194</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3942187621102688</v>
+        <v>0.09043667463635383</v>
       </c>
       <c r="P20" t="n">
-        <v>125.8901603778263</v>
+        <v>131.7791848217785</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.2415856947865</v>
+        <v>206.1306101387387</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9783625532729631</v>
+        <v>0.9988726302958146</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7443610438111334</v>
+        <v>0.8187685897721926</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8531366787301183</v>
+        <v>0.9958107496465374</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5964909120171608</v>
+        <v>0.9943899261808611</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7746302948711129</v>
+        <v>0.9952011703177869</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1446897058949772</v>
+        <v>0.00753872640294745</v>
       </c>
       <c r="H21" t="n">
-        <v>1.709458877144109</v>
+        <v>1.211895274687261</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3476914041449209</v>
+        <v>0.01242659965120077</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5353668732602438</v>
+        <v>0.03467203072915274</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4415291284993552</v>
+        <v>0.02354932176798677</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7068454079588744</v>
+        <v>0.08929763605778236</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3803810009647921</v>
+        <v>0.08682583948887249</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0140351005797</v>
+        <v>1.000731266835147</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3965746076730861</v>
+        <v>0.09052219523017936</v>
       </c>
       <c r="P21" t="n">
-        <v>125.8663275777828</v>
+        <v>131.7754040466109</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.217752894743</v>
+        <v>206.1268293635712</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.978114439150487</v>
+        <v>0.9988706936165699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7436611007553331</v>
+        <v>0.8187652731449454</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8504618146156416</v>
+        <v>0.9957873007010355</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5904168776537302</v>
+        <v>0.9943875184462461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7709573637387439</v>
+        <v>0.9951925816920119</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1463488461744352</v>
+        <v>0.007551676985974632</v>
       </c>
       <c r="H22" t="n">
-        <v>1.714139399581187</v>
+        <v>1.211917452988934</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3540240081730581</v>
+        <v>0.01249615640560984</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5434257668070562</v>
+        <v>0.03468691129066584</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4487248874900572</v>
+        <v>0.02359146877576037</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6825954027972422</v>
+        <v>0.08942974073775503</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3825556772215454</v>
+        <v>0.08690038541902236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014196039469954</v>
+        <v>1.000732523059522</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3988418644002897</v>
+        <v>0.09059991473490704</v>
       </c>
       <c r="P22" t="n">
-        <v>125.8435242997802</v>
+        <v>131.771971246076</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.1949496167405</v>
+        <v>206.1233965630362</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9778766992676747</v>
+        <v>0.9988689443178813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7430093170520286</v>
+        <v>0.8187622637998399</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8480168813594834</v>
+        <v>0.9957660852026545</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5848326031864284</v>
+        <v>0.9943854125502564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7675892170233198</v>
+        <v>0.9951848302977697</v>
       </c>
       <c r="G23" t="n">
-        <v>0.147938613865492</v>
+        <v>0.007563374554360168</v>
       </c>
       <c r="H23" t="n">
-        <v>1.718497880206372</v>
+        <v>1.211937576493511</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3598122626502407</v>
+        <v>0.012559088071788</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5508348578288514</v>
+        <v>0.03469992639399998</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4553235334041949</v>
+        <v>0.02362950723289399</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6607763792772522</v>
+        <v>0.08955482761202643</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3846278901295277</v>
+        <v>0.08696766384329389</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01435024912367</v>
+        <v>1.000733657739753</v>
       </c>
       <c r="O23" t="n">
-        <v>0.401002295701837</v>
+        <v>0.09067005734098536</v>
       </c>
       <c r="P23" t="n">
-        <v>125.821915724877</v>
+        <v>131.7688756375192</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.1733410418372</v>
+        <v>206.1203009544795</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9776509751509319</v>
+        <v>0.9988673540201957</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7424045042771639</v>
+        <v>0.8187595646794127</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8457850116887717</v>
+        <v>0.995746960729639</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5797111511065487</v>
+        <v>0.9943834652781004</v>
       </c>
       <c r="F24" t="n">
-        <v>0.764506495669516</v>
+        <v>0.9951778266950676</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1494480320735153</v>
+        <v>0.007574008882306696</v>
       </c>
       <c r="H24" t="n">
-        <v>1.7225422660168</v>
+        <v>1.211955625524237</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3650960999825871</v>
+        <v>0.01261581711628374</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5576298864123811</v>
+        <v>0.03471196115186739</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4613629931974841</v>
+        <v>0.02366387604872822</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6411461397071534</v>
+        <v>0.08966972990220487</v>
       </c>
       <c r="M24" t="n">
-        <v>0.386585090340426</v>
+        <v>0.08702878191901053</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014496664766963</v>
+        <v>1.000734689284198</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4030428179776762</v>
+        <v>0.09073377733971713</v>
       </c>
       <c r="P24" t="n">
-        <v>125.8016131162614</v>
+        <v>131.7660655535333</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.1530384332216</v>
+        <v>206.1174908704936</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9774381312150618</v>
+        <v>0.9988659183045829</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7418450973311743</v>
+        <v>0.8187571151708651</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8437499318541948</v>
+        <v>0.9957295787014883</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5750214250897617</v>
+        <v>0.9943817991040702</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7616888360548379</v>
+        <v>0.9951715494335873</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1508713204527348</v>
+        <v>0.007583609519220128</v>
       </c>
       <c r="H25" t="n">
-        <v>1.726283022840464</v>
+        <v>1.211972005399173</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3699140474395345</v>
+        <v>0.01266737753562613</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5638521104683637</v>
+        <v>0.03472225863440238</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4668831619058966</v>
+        <v>0.02369468048652002</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6234788675064196</v>
+        <v>0.08976671958852026</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3884215756787138</v>
+        <v>0.0870839222774223</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014634725698338</v>
+        <v>1.00073562055919</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4049574862988637</v>
+        <v>0.09079126513734276</v>
       </c>
       <c r="P25" t="n">
-        <v>125.7826559758266</v>
+        <v>131.7635320055991</v>
       </c>
       <c r="Q25" t="n">
-        <v>200.1340812927868</v>
+        <v>206.1149573225593</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9772387671120566</v>
+        <v>0.9988646217826759</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7413291589854216</v>
+        <v>0.818754909487789</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8418966737004602</v>
+        <v>0.9957140350424692</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5707377605310895</v>
+        <v>0.9943802479048598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7591186172359597</v>
+        <v>0.9951658467770248</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1522044691275182</v>
+        <v>0.007592279367182193</v>
       </c>
       <c r="H26" t="n">
-        <v>1.72973310493419</v>
+        <v>1.21198675481206</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3743015413634321</v>
+        <v>0.01271348478905965</v>
       </c>
       <c r="J26" t="n">
-        <v>0.569535581223227</v>
+        <v>0.03473184553618391</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4719185612933295</v>
+        <v>0.02372266516262178</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6075800464625712</v>
+        <v>0.0898580102337569</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3901339117886553</v>
+        <v>0.08713368675307039</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014764042954342</v>
+        <v>1.000736461546372</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4067427201020297</v>
+        <v>0.09084314818974584</v>
       </c>
       <c r="P26" t="n">
-        <v>125.7650609409343</v>
+        <v>131.7612468415549</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.1164862578945</v>
+        <v>206.1126721585152</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_0</t>
+          <t>model_2_9_14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998963407887335</v>
+        <v>0.9809092604766438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8189348213812863</v>
+        <v>0.8125802259886705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971072575379639</v>
+        <v>0.8496725080744263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.994541792944493</v>
+        <v>0.9686436400716375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9956886499381371</v>
+        <v>0.9302116400422146</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006931696230458697</v>
+        <v>0.1276598630974555</v>
       </c>
       <c r="H2" t="n">
-        <v>1.210783683151825</v>
+        <v>1.253276891802468</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008580760144840369</v>
+        <v>0.529715184524267</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03373344609281167</v>
+        <v>0.2219216673670138</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0211571105008283</v>
+        <v>0.3758184003899575</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08183509801522741</v>
+        <v>0.4283110973486488</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08325680891349786</v>
+        <v>0.3572952044142987</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00067238407308</v>
+        <v>1.012383182393528</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08680122363429923</v>
+        <v>0.3725060009692512</v>
       </c>
       <c r="P2" t="n">
-        <v>131.9433014588615</v>
+        <v>126.116771743109</v>
       </c>
       <c r="Q2" t="n">
-        <v>206.2947267758217</v>
+        <v>200.4681970600692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_1</t>
+          <t>model_2_9_13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9989562263881825</v>
+        <v>0.9808415930142346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8189201231406152</v>
+        <v>0.8125782062856387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9969782552672503</v>
+        <v>0.8494150801800713</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9945241192709343</v>
+        <v>0.9699042221176535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9956385417713123</v>
+        <v>0.9309557827270687</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006979718948359029</v>
+        <v>0.1281123557301663</v>
       </c>
       <c r="H3" t="n">
-        <v>1.210881970354871</v>
+        <v>1.253290397565941</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008963420391185022</v>
+        <v>0.5306222938148777</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03384267498577789</v>
+        <v>0.2130000173367199</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02140300656755797</v>
+        <v>0.3718111058546951</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08269981660551347</v>
+        <v>0.4310587085768486</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0835447122704904</v>
+        <v>0.3579278638638885</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000677042342801</v>
+        <v>1.012427074801578</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08710138363324105</v>
+        <v>0.3731655940413956</v>
       </c>
       <c r="P3" t="n">
-        <v>131.9294932565932</v>
+        <v>126.1096952418868</v>
       </c>
       <c r="Q3" t="n">
-        <v>206.2809185735534</v>
+        <v>200.4611205588471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_2</t>
+          <t>model_2_9_15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9989490387514514</v>
+        <v>0.9809425014188392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.818905892050667</v>
+        <v>0.8125602581067871</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9968575750889566</v>
+        <v>0.8499004427896499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9945083211750986</v>
+        <v>0.9674853537473586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9955921116201806</v>
+        <v>0.9295250640671353</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007027782708276381</v>
+        <v>0.1274375807639346</v>
       </c>
       <c r="H4" t="n">
-        <v>1.210977133718883</v>
+        <v>1.253410417120565</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009321394762482992</v>
+        <v>0.5289120015655969</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03394031221515092</v>
+        <v>0.2301193291160073</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02163085348881695</v>
+        <v>0.3795156915264238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08347801549231085</v>
+        <v>0.4258304765705576</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08383187167346547</v>
+        <v>0.3569840063139169</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000681704593653</v>
+        <v>1.012361620701294</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08740076800650268</v>
+        <v>0.3721815545214672</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9157680542761</v>
+        <v>126.1202571937887</v>
       </c>
       <c r="Q4" t="n">
-        <v>206.2671933712363</v>
+        <v>200.471682510749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_3</t>
+          <t>model_2_9_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9989419535883556</v>
+        <v>0.9807284626394248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8188922590096268</v>
+        <v>0.8125459394229579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9967449769079491</v>
+        <v>0.8491233271372571</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9944940886341467</v>
+        <v>0.971272826831259</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9955491420570737</v>
+        <v>0.9317596659547899</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007075161226522306</v>
+        <v>0.1288688590674361</v>
       </c>
       <c r="H5" t="n">
-        <v>1.211068297927093</v>
+        <v>1.253506166225262</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009655395454439242</v>
+        <v>0.5316503560470764</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03402827382014021</v>
+        <v>0.203313847108301</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02184171824852786</v>
+        <v>0.3674821015776887</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08417966687363242</v>
+        <v>0.4341105973138045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08411397759303924</v>
+        <v>0.3589830902249243</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000686300375121</v>
+        <v>1.012500456666319</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08769488375911245</v>
+        <v>0.3742657435732404</v>
       </c>
       <c r="P5" t="n">
-        <v>131.9023300950229</v>
+        <v>126.097919976163</v>
       </c>
       <c r="Q5" t="n">
-        <v>206.2537554119831</v>
+        <v>200.4493452931233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_9_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989350949939768</v>
+        <v>0.9809499426921364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8188793162962978</v>
+        <v>0.8125246777796051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9966407048210296</v>
+        <v>0.8501029906690061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9944812802934273</v>
+        <v>0.9664231753669066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9955095383125652</v>
+        <v>0.9288933517294803</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00712102467871403</v>
+        <v>0.1273878209351319</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21115484591072</v>
+        <v>1.253648342932264</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009964698401175528</v>
+        <v>0.5281982752477175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03410743341720204</v>
+        <v>0.2376367959957611</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02203606590918878</v>
+        <v>0.3829175356217393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08480683659711634</v>
+        <v>0.4236004417009815</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08438616402416944</v>
+        <v>0.3569143047499385</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000690749193096</v>
+        <v>1.012356793929425</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08797865773011948</v>
+        <v>0.3721088856176082</v>
       </c>
       <c r="P6" t="n">
-        <v>131.8894072967267</v>
+        <v>126.1210382749385</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.240832613687</v>
+        <v>200.4724635918987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9989285260947038</v>
+        <v>0.9809384594956413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8188671153853857</v>
+        <v>0.8124783107808725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9965443441338548</v>
+        <v>0.8502843277020729</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9944697481333915</v>
+        <v>0.9654507443944288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9954731529956281</v>
+        <v>0.9283136601655062</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007164950938398902</v>
+        <v>0.1274646091229704</v>
       </c>
       <c r="H7" t="n">
-        <v>1.211236433458169</v>
+        <v>1.253958399266289</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0102505337131296</v>
+        <v>0.5275592904638856</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03417870581396966</v>
+        <v>0.2445190840963131</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02221461976354963</v>
+        <v>0.386039241826385</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08537036638939158</v>
+        <v>0.4215977704303476</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08464603321124328</v>
+        <v>0.3570218608474422</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000695010100733</v>
+        <v>1.012364242489314</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08824959008649043</v>
+        <v>0.3722210206008544</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8771081302453</v>
+        <v>126.119833056842</v>
       </c>
       <c r="Q7" t="n">
-        <v>206.2285334472056</v>
+        <v>200.4712583738022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_6</t>
+          <t>model_2_9_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9989222966929915</v>
+        <v>0.9805560357702231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.818855745412592</v>
+        <v>0.8124729850542968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9964557045124309</v>
+        <v>0.8487909447609497</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9944593605333744</v>
+        <v>0.972755001844313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9954398219811748</v>
+        <v>0.932624917195976</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00720660697633339</v>
+        <v>0.1300218783357407</v>
       </c>
       <c r="H8" t="n">
-        <v>1.211312464518595</v>
+        <v>1.253994012424424</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01051346597922299</v>
+        <v>0.5328215855377239</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03424290446778579</v>
+        <v>0.1928238938427392</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02237818522350439</v>
+        <v>0.3628226234412965</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08587622779954099</v>
+        <v>0.4374889646479915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08489173679654216</v>
+        <v>0.3605854660628195</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000699050793735</v>
+        <v>1.012612301122017</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08850575378209199</v>
+        <v>0.3759363358679301</v>
       </c>
       <c r="P8" t="n">
-        <v>131.8655140762569</v>
+        <v>126.0801050955925</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.2169393932171</v>
+        <v>200.4315304125527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_7</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9989164197172967</v>
+        <v>0.9809133180412081</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8188451154023995</v>
+        <v>0.8124250693729521</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9963741270361941</v>
+        <v>0.8504456086709242</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9944500136028865</v>
+        <v>0.964562332189264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9954092823896656</v>
+        <v>0.9277826276951985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007245906339865561</v>
+        <v>0.1276327301445308</v>
       </c>
       <c r="H9" t="n">
-        <v>1.211383547445699</v>
+        <v>1.254314424806207</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01075544975966541</v>
+        <v>0.5269909780608713</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03430067145473593</v>
+        <v>0.2508067373293352</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02252805231917901</v>
+        <v>0.3888989131765485</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08633244265797907</v>
+        <v>0.4197914754448334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08512288963531231</v>
+        <v>0.3572572324593734</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000702862886078</v>
+        <v>1.012380550459757</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08874674727576094</v>
+        <v>0.372466412469592</v>
       </c>
       <c r="P9" t="n">
-        <v>131.854637224727</v>
+        <v>126.1171968702571</v>
       </c>
       <c r="Q9" t="n">
-        <v>206.2060625416872</v>
+        <v>200.4686221872174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_8</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9989109305193377</v>
+        <v>0.9808787666563449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8188352803193462</v>
+        <v>0.8123677777450118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9962995311583511</v>
+        <v>0.8505910690713384</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9944415990683614</v>
+        <v>0.9637515367520805</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9953814352317004</v>
+        <v>0.9272974336603933</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007282612631893267</v>
+        <v>0.1278637754142054</v>
       </c>
       <c r="H10" t="n">
-        <v>1.211449314691363</v>
+        <v>1.254697534186047</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01097672398091581</v>
+        <v>0.52647841324748</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03435267593970916</v>
+        <v>0.2565450652387105</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02266470682177116</v>
+        <v>0.3915117392430952</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08674354250400997</v>
+        <v>0.4181703497296217</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08533822491646557</v>
+        <v>0.3575804460736148</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000706423446916</v>
+        <v>1.012402962168857</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08897124982563839</v>
+        <v>0.3728033859565361</v>
       </c>
       <c r="P10" t="n">
-        <v>131.8445312062951</v>
+        <v>126.1135796727201</v>
       </c>
       <c r="Q10" t="n">
-        <v>206.1959565232553</v>
+        <v>200.4650049896804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_9</t>
+          <t>model_2_9_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9989058259454532</v>
+        <v>0.9803068232864772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8188262002288067</v>
+        <v>0.8123459711067562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9962312828721794</v>
+        <v>0.8484098207007971</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9944340861185366</v>
+        <v>0.9743553748480094</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9953560801382929</v>
+        <v>0.9335518492838898</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007316746940963043</v>
+        <v>0.131688363362068</v>
       </c>
       <c r="H11" t="n">
-        <v>1.21151003329861</v>
+        <v>1.254843355276473</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01117916930109923</v>
+        <v>0.5341645681104016</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03439910834605326</v>
+        <v>0.1814974054939366</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02278913200304484</v>
+        <v>0.3578309868021691</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08711307293477479</v>
+        <v>0.4412168642362699</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08553798536885845</v>
+        <v>0.3628889132531717</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000709734521868</v>
+        <v>1.012773952462826</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08917951449405077</v>
+        <v>0.3783378455739687</v>
       </c>
       <c r="P11" t="n">
-        <v>131.8351789135185</v>
+        <v>126.0546340625926</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.1866042304787</v>
+        <v>200.4060593795529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_10</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9989010913577696</v>
+        <v>0.980837887872278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8188178104882424</v>
+        <v>0.8123086485297706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9961689245967454</v>
+        <v>0.8507209276702938</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9944273449371251</v>
+        <v>0.9630126213656359</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9953330016553775</v>
+        <v>0.9268543591075699</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007348407150603685</v>
+        <v>0.1281371320314906</v>
       </c>
       <c r="H12" t="n">
-        <v>1.211566135532395</v>
+        <v>1.255092931520631</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01136414304541554</v>
+        <v>0.526020825145486</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03444077097948488</v>
+        <v>0.2617746688973479</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02290238516185266</v>
+        <v>0.3938977470214169</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08744641524323296</v>
+        <v>0.4167145493049662</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08572285080772621</v>
+        <v>0.3579624729374444</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000712805605771</v>
+        <v>1.012429478136901</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08937225003737534</v>
+        <v>0.3732016764948635</v>
       </c>
       <c r="P12" t="n">
-        <v>131.8265434068938</v>
+        <v>126.1093084890918</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.177968723854</v>
+        <v>200.4607338060521</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_11</t>
+          <t>model_2_9_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9988967103533819</v>
+        <v>0.980793268456837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8188101424103891</v>
+        <v>0.8122492904438956</v>
       </c>
       <c r="D13" t="n">
-        <v>0.996112133609626</v>
+        <v>0.8508378012896114</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9944212040847648</v>
+        <v>0.9623403450899243</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9953119692932478</v>
+        <v>0.926450826535001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007377702947116886</v>
+        <v>0.1284355022679976</v>
       </c>
       <c r="H13" t="n">
-        <v>1.211617412004308</v>
+        <v>1.255489859314196</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01153260250741585</v>
+        <v>0.5256089927518911</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03447872338948966</v>
+        <v>0.2665326405617266</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02300559738152539</v>
+        <v>0.3960708166568089</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08774581043681426</v>
+        <v>0.415403203867067</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08589355591147037</v>
+        <v>0.3583789925037426</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000715647338347</v>
+        <v>1.01245842046043</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08955022241079416</v>
+        <v>0.3736359281614134</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8185858851949</v>
+        <v>126.1046568570607</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.1700112021552</v>
+        <v>200.4560821740209</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_12</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9988926853667346</v>
+        <v>0.9807466905845327</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8188030761134741</v>
+        <v>0.8121909015159172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9960604896168564</v>
+        <v>0.8509428901611468</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9944157224312562</v>
+        <v>0.9617289335820702</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9952929073564502</v>
+        <v>0.9260834070376869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007404618051361151</v>
+        <v>0.1287469687145681</v>
       </c>
       <c r="H14" t="n">
-        <v>1.211664664364315</v>
+        <v>1.255880306344443</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01168579440772953</v>
+        <v>0.5252386867601944</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03451260174207833</v>
+        <v>0.2708598475966099</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02309914012275543</v>
+        <v>0.3980494131997883</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08801898852161712</v>
+        <v>0.4142290663582096</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08605009036230671</v>
+        <v>0.3588132783420481</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000718258140497</v>
+        <v>1.012488633134357</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0897134208572736</v>
+        <v>0.3740887024469511</v>
       </c>
       <c r="P14" t="n">
-        <v>131.8113028248447</v>
+        <v>126.0998125673599</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.1627281418049</v>
+        <v>200.4512378843202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_13</t>
+          <t>model_2_9_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9988889850375614</v>
+        <v>0.9799586847380141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8187967132986849</v>
+        <v>0.8121477408913057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9960136435140986</v>
+        <v>0.8479692011335589</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9944107109163909</v>
+        <v>0.9760773977071444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9952755941858709</v>
+        <v>0.9345392769189697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007429362169580211</v>
+        <v>0.1340163674386713</v>
       </c>
       <c r="H15" t="n">
-        <v>1.21170721253611</v>
+        <v>1.256168921639957</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01182475429674886</v>
+        <v>0.5357171974556723</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03454357448914248</v>
+        <v>0.1693099518157533</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02318410113445946</v>
+        <v>0.3525135746357127</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08825689734023408</v>
+        <v>0.4453330514701139</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08619374785667584</v>
+        <v>0.366082459889396</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000720658354014</v>
+        <v>1.012999772061829</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08986319414859004</v>
+        <v>0.3816673481020499</v>
       </c>
       <c r="P15" t="n">
-        <v>131.8046305384319</v>
+        <v>126.0195866828512</v>
       </c>
       <c r="Q15" t="n">
-        <v>206.1560558553922</v>
+        <v>200.3710119998115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_14</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9988855955816777</v>
+        <v>0.9806996215721031</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8187908478943182</v>
+        <v>0.8121342968419137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9959709613576845</v>
+        <v>0.8510376893013643</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9944062700942821</v>
+        <v>0.9611737522343746</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9952598712870735</v>
+        <v>0.9257496365207726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007452027476682123</v>
+        <v>0.1290617194174172</v>
       </c>
       <c r="H16" t="n">
-        <v>1.211746434522117</v>
+        <v>1.256258822060145</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01195136264556004</v>
+        <v>0.5249046391192086</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03457102017445506</v>
+        <v>0.2747890909990057</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0232612581972068</v>
+        <v>0.3998468060865097</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08847046693471328</v>
+        <v>0.4131707025283212</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08632512656626762</v>
+        <v>0.3592516101806883</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000722856919993</v>
+        <v>1.012519164385663</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09000016592184056</v>
+        <v>0.3745456949794343</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7985382781884</v>
+        <v>126.0949290878851</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.1499635951486</v>
+        <v>200.4463544048454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_15</t>
+          <t>model_2_9_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.99888250196226</v>
+        <v>0.9806529935214244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8187855165898749</v>
+        <v>0.8120800952036163</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9959323619578748</v>
+        <v>0.8511227450099416</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9944022529110241</v>
+        <v>0.9606697157987166</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9952456892130142</v>
+        <v>0.9254462710043213</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007472714523972499</v>
+        <v>0.1293735214070083</v>
       </c>
       <c r="H17" t="n">
-        <v>1.211782084979478</v>
+        <v>1.256621268665016</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01206586028779668</v>
+        <v>0.5246049248102239</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03459584763766752</v>
+        <v>0.2783563611308228</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0233308539627321</v>
+        <v>0.4014804645246093</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08867175194196221</v>
+        <v>0.4122233173054465</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08644486406937371</v>
+        <v>0.3596853088562394</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000724863592048</v>
+        <v>1.012549409607725</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09012500089834469</v>
+        <v>0.3749978571054836</v>
       </c>
       <c r="P17" t="n">
-        <v>131.7929939115151</v>
+        <v>126.0901030875318</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.1444192284754</v>
+        <v>200.4415284044921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_16</t>
+          <t>model_2_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9988796639184671</v>
+        <v>0.9794840751791313</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8187806332660919</v>
+        <v>0.8118566108735085</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9958972064735363</v>
+        <v>0.8474563893960495</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9943986195850091</v>
+        <v>0.9779228913907815</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9952327761137205</v>
+        <v>0.935584243573495</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007491692535884085</v>
+        <v>0.1371900837442964</v>
       </c>
       <c r="H18" t="n">
-        <v>1.211814739788101</v>
+        <v>1.258115709409497</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0121701422219278</v>
+        <v>0.5375242133293586</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03461830274170051</v>
+        <v>0.1562486450721224</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02339422248181415</v>
+        <v>0.3468863081860915</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08884620489331808</v>
+        <v>0.4498521956350743</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08655456392290406</v>
+        <v>0.3703917976201638</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000726704485319</v>
+        <v>1.013307626910834</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09023937090174981</v>
+        <v>0.3861601432615754</v>
       </c>
       <c r="P18" t="n">
-        <v>131.7879210684656</v>
+        <v>125.9727756844372</v>
       </c>
       <c r="Q18" t="n">
-        <v>206.1393463854258</v>
+        <v>200.3242010013974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_17</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9988771029107956</v>
+        <v>0.9788482295659051</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8187762176640686</v>
+        <v>0.8114449861171812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.995865518417256</v>
+        <v>0.8468531588782243</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9943954446305278</v>
+        <v>0.9798914983156725</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9952211864929263</v>
+        <v>0.9366804835783915</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007508818005975526</v>
+        <v>0.1414419862877402</v>
       </c>
       <c r="H19" t="n">
-        <v>1.211844266939162</v>
+        <v>1.260868246050416</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01226413870241878</v>
+        <v>0.5396498415891492</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03463792496466775</v>
+        <v>0.142316016024613</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02345109628799723</v>
+        <v>0.3409829288068811</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08900502409473562</v>
+        <v>0.4548012479411568</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08665343620408555</v>
+        <v>0.3760877374865341</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000728365679484</v>
+        <v>1.013720067308602</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09034245238063504</v>
+        <v>0.3920985710802781</v>
       </c>
       <c r="P19" t="n">
-        <v>131.7833544298878</v>
+        <v>125.9117312737349</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.134779746848</v>
+        <v>200.2631565906952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_18</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9988747594484099</v>
+        <v>0.9780076859266852</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8187722104914975</v>
+        <v>0.8108777218840382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9958368087282493</v>
+        <v>0.846138159198452</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9943925141535587</v>
+        <v>0.9819790388502808</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9952106772528442</v>
+        <v>0.9378183325102164</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007524488749739187</v>
+        <v>0.1470627054735512</v>
       </c>
       <c r="H20" t="n">
-        <v>1.211871062920597</v>
+        <v>1.264661544589455</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01234930043334774</v>
+        <v>0.5421693154555322</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03465603623927824</v>
+        <v>0.1275416456195372</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02350266833631299</v>
+        <v>0.3348554805375347</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08914448740726304</v>
+        <v>0.460192852776797</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08674381101692032</v>
+        <v>0.3834875558261979</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000729885763194</v>
+        <v>1.014265284804312</v>
       </c>
       <c r="O20" t="n">
-        <v>0.09043667463635383</v>
+        <v>0.399813415006397</v>
       </c>
       <c r="P20" t="n">
-        <v>131.7791848217785</v>
+        <v>125.8337924306206</v>
       </c>
       <c r="Q20" t="n">
-        <v>206.1306101387387</v>
+        <v>200.1852177475809</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_19</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9988726302958146</v>
+        <v>0.9769079089395935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8187685897721926</v>
+        <v>0.8101101325353269</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9958107496465374</v>
+        <v>0.8452815346350077</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9943899261808611</v>
+        <v>0.9841768345467683</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9952011703177869</v>
+        <v>0.9389822880874686</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00753872640294745</v>
+        <v>0.1544169192502407</v>
       </c>
       <c r="H21" t="n">
-        <v>1.211895274687261</v>
+        <v>1.26979441809871</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01242659965120077</v>
+        <v>0.5451878387667413</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03467203072915274</v>
+        <v>0.1119869547494605</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02354932176798677</v>
+        <v>0.328587444959216</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08929763605778236</v>
+        <v>0.4660303349928007</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08682583948887249</v>
+        <v>0.3929591826770825</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000731266835147</v>
+        <v>1.014978653660804</v>
       </c>
       <c r="O21" t="n">
-        <v>0.09052219523017936</v>
+        <v>0.4096882686212943</v>
       </c>
       <c r="P21" t="n">
-        <v>131.7754040466109</v>
+        <v>125.7361981335174</v>
       </c>
       <c r="Q21" t="n">
-        <v>206.1268293635712</v>
+        <v>200.0876234504777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_20</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9988706936165699</v>
+        <v>0.975480478957973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8187652731449454</v>
+        <v>0.8090852994133046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9957873007010355</v>
+        <v>0.8442439918829028</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9943875184462461</v>
+        <v>0.9864690365202531</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9951925816920119</v>
+        <v>0.9401490933005372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007551676985974632</v>
+        <v>0.1639621501100478</v>
       </c>
       <c r="H22" t="n">
-        <v>1.211917452988934</v>
+        <v>1.276647481904597</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01249615640560984</v>
+        <v>0.5488438709624701</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03468691129066584</v>
+        <v>0.09576411239595173</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02359146877576037</v>
+        <v>0.3223040637620174</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08942974073775503</v>
+        <v>0.4722850546339227</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08690038541902236</v>
+        <v>0.4049224001090181</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000732523059522</v>
+        <v>1.015904554189423</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09059991473490704</v>
+        <v>0.4221607849865815</v>
       </c>
       <c r="P22" t="n">
-        <v>131.771971246076</v>
+        <v>125.6162393396128</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.1233965630362</v>
+        <v>199.9676646565731</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_21</t>
+          <t>model_2_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9988689443178813</v>
+        <v>0.9736396123097841</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8187622637998399</v>
+        <v>0.8077305021024931</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9957660852026545</v>
+        <v>0.8429754629447542</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9943854125502564</v>
+        <v>0.9888295822354836</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9951848302977697</v>
+        <v>0.9412852541155756</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007563374554360168</v>
+        <v>0.1762720338628981</v>
       </c>
       <c r="H23" t="n">
-        <v>1.211937576493511</v>
+        <v>1.285707017760261</v>
       </c>
       <c r="I23" t="n">
-        <v>0.012559088071788</v>
+        <v>0.5533138387104747</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03469992639399998</v>
+        <v>0.07905757368365138</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02362950723289399</v>
+        <v>0.316185706197063</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08955482761202643</v>
+        <v>0.4789144733663647</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08696766384329389</v>
+        <v>0.4198476317223882</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000733657739753</v>
+        <v>1.017098629853113</v>
       </c>
       <c r="O23" t="n">
-        <v>0.09067005734098536</v>
+        <v>0.4377214146092215</v>
       </c>
       <c r="P23" t="n">
-        <v>131.7688756375192</v>
+        <v>125.471453660557</v>
       </c>
       <c r="Q23" t="n">
-        <v>206.1203009544795</v>
+        <v>199.8228789775173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_22</t>
+          <t>model_2_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9988673540201957</v>
+        <v>0.9712775520174932</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8187595646794127</v>
+        <v>0.8059527146529386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.995746960729639</v>
+        <v>0.8414091910905276</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9943834652781004</v>
+        <v>0.9912177013994409</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9951778266950676</v>
+        <v>0.9423421070085375</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007574008882306696</v>
+        <v>0.1920671419137351</v>
       </c>
       <c r="H24" t="n">
-        <v>1.211955625524237</v>
+        <v>1.29759509062139</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01261581711628374</v>
+        <v>0.5588329754541889</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03471196115186739</v>
+        <v>0.06215588649970075</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02366387604872822</v>
+        <v>0.3104944309769448</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08966972990220487</v>
+        <v>0.485817749281707</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08702878191901053</v>
+        <v>0.4382546541837692</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000734689284198</v>
+        <v>1.018630777069734</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09073377733971713</v>
+        <v>0.4569120621245728</v>
       </c>
       <c r="P24" t="n">
-        <v>131.7660655535333</v>
+        <v>125.2998205412338</v>
       </c>
       <c r="Q24" t="n">
-        <v>206.1174908704936</v>
+        <v>199.651245858194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_23</t>
+          <t>model_2_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9988659183045829</v>
+        <v>0.9682583271521823</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8187571151708651</v>
+        <v>0.8036323314519025</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9957295787014883</v>
+        <v>0.8394567580313481</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9943817991040702</v>
+        <v>0.9935701901943617</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9951715494335873</v>
+        <v>0.9432492042799629</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007583609519220128</v>
+        <v>0.2122567124903216</v>
       </c>
       <c r="H25" t="n">
-        <v>1.211972005399173</v>
+        <v>1.313111503771101</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01266737753562613</v>
+        <v>0.5657128443655028</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03472225863440238</v>
+        <v>0.04550636987775349</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02369468048652002</v>
+        <v>0.3056096071216282</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08976671958852026</v>
+        <v>0.4928398774097681</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0870839222774223</v>
+        <v>0.4607132649385315</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00073562055919</v>
+        <v>1.020589193198584</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09079126513734276</v>
+        <v>0.4803267824348987</v>
       </c>
       <c r="P25" t="n">
-        <v>131.7635320055991</v>
+        <v>125.0999176577893</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.1149573225593</v>
+        <v>199.4513429747496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_24</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9988646217826759</v>
+        <v>0.9644100609404821</v>
       </c>
       <c r="C26" t="n">
-        <v>0.818754909487789</v>
+        <v>0.8006146484494159</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9957140350424692</v>
+        <v>0.8370028313973987</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9943802479048598</v>
+        <v>0.9957897594115318</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9951658467770248</v>
+        <v>0.9439048863145494</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007592279367182193</v>
+        <v>0.2379900863675972</v>
       </c>
       <c r="H26" t="n">
-        <v>1.21198675481206</v>
+        <v>1.333290763903882</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01271348478905965</v>
+        <v>0.5743598468735672</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03473184553618391</v>
+        <v>0.02979757897739914</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02372266516262178</v>
+        <v>0.3020786834324662</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0898580102337569</v>
+        <v>0.4997110343170296</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08713368675307039</v>
+        <v>0.4878422761175965</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000736461546372</v>
+        <v>1.023085365876444</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09084314818974584</v>
+        <v>0.5086107317846515</v>
       </c>
       <c r="P26" t="n">
-        <v>131.7612468415549</v>
+        <v>124.8710525201917</v>
       </c>
       <c r="Q26" t="n">
-        <v>206.1126721585152</v>
+        <v>199.222477837152</v>
       </c>
     </row>
   </sheetData>
